--- a/Week 1 - Excel/Day_3_Task_1_Bike_Sales_Pivot_Lab.xlsx
+++ b/Week 1 - Excel/Day_3_Task_1_Bike_Sales_Pivot_Lab.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12ahm\Desktop\Just It Data bootcamp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12ahm\Documents\GitHub\JustIT-Bootcamp\Week 1 - Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52EE3192-9C77-4D09-83A3-69271D54E014}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B638E82E-C6AB-4EA8-9FC1-D2729C099986}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="15" r:id="rId3"/>
+    <pivotCache cacheId="2" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -10816,6 +10816,118 @@
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="290"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="291"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
@@ -10828,7 +10940,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$3:$B$5</c:f>
+              <c:f>Sheet1!$B$1:$B$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -10849,7 +10961,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$6:$A$14</c:f>
+              <c:f>Sheet1!$A$4:$A$12</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -10881,7 +10993,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$6:$B$14</c:f>
+              <c:f>Sheet1!$B$4:$B$12</c:f>
               <c:numCache>
                 <c:formatCode>"$"#,##0.00_);[Red]\("$"#,##0.00\)</c:formatCode>
                 <c:ptCount val="8"/>
@@ -10923,7 +11035,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$3:$C$5</c:f>
+              <c:f>Sheet1!$C$1:$C$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -10944,7 +11056,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$6:$A$14</c:f>
+              <c:f>Sheet1!$A$4:$A$12</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -10976,7 +11088,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$6:$C$14</c:f>
+              <c:f>Sheet1!$C$4:$C$12</c:f>
               <c:numCache>
                 <c:formatCode>"$"#,##0.00_);[Red]\("$"#,##0.00\)</c:formatCode>
                 <c:ptCount val="8"/>
@@ -11018,7 +11130,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$3:$E$5</c:f>
+              <c:f>Sheet1!$E$1:$E$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -11039,7 +11151,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$6:$A$14</c:f>
+              <c:f>Sheet1!$A$4:$A$12</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -11071,7 +11183,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$6:$E$14</c:f>
+              <c:f>Sheet1!$E$4:$E$12</c:f>
               <c:numCache>
                 <c:formatCode>"$"#,##0.00_);[Red]\("$"#,##0.00\)</c:formatCode>
                 <c:ptCount val="8"/>
@@ -11113,7 +11225,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$F$3:$F$5</c:f>
+              <c:f>Sheet1!$F$1:$F$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -11134,7 +11246,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$6:$A$14</c:f>
+              <c:f>Sheet1!$A$4:$A$12</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -11166,7 +11278,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$6:$F$14</c:f>
+              <c:f>Sheet1!$F$4:$F$12</c:f>
               <c:numCache>
                 <c:formatCode>"$"#,##0.00_);[Red]\("$"#,##0.00\)</c:formatCode>
                 <c:ptCount val="8"/>
@@ -11208,7 +11320,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$H$3:$H$5</c:f>
+              <c:f>Sheet1!$H$1:$H$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -11229,7 +11341,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$6:$A$14</c:f>
+              <c:f>Sheet1!$A$4:$A$12</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -11261,7 +11373,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$6:$H$14</c:f>
+              <c:f>Sheet1!$H$4:$H$12</c:f>
               <c:numCache>
                 <c:formatCode>"$"#,##0.00_);[Red]\("$"#,##0.00\)</c:formatCode>
                 <c:ptCount val="8"/>
@@ -11303,7 +11415,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$I$3:$I$5</c:f>
+              <c:f>Sheet1!$I$1:$I$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -11324,7 +11436,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$6:$A$14</c:f>
+              <c:f>Sheet1!$A$4:$A$12</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -11356,7 +11468,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$I$6:$I$14</c:f>
+              <c:f>Sheet1!$I$4:$I$12</c:f>
               <c:numCache>
                 <c:formatCode>"$"#,##0.00_);[Red]\("$"#,##0.00\)</c:formatCode>
                 <c:ptCount val="8"/>
@@ -12163,13 +12275,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>866774</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -14240,8 +14352,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EF2BDDD5-FD08-4653-99A8-2B772B3F27B4}" name="PivotTable1" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" missingCaption="0" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="14">
-  <location ref="A3:K14" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EF2BDDD5-FD08-4653-99A8-2B772B3F27B4}" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" missingCaption="0" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="14">
+  <location ref="A1:K12" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
   <pivotFields count="19">
     <pivotField showAll="0"/>
     <pivotField numFmtId="14" showAll="0"/>
@@ -14506,7 +14618,7 @@
       </pivotAreas>
     </conditionalFormat>
   </conditionalFormats>
-  <chartFormats count="25">
+  <chartFormats count="27">
     <chartFormat chart="8" format="256" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
@@ -14852,6 +14964,36 @@
         </references>
       </pivotArea>
     </chartFormat>
+    <chartFormat chart="8" format="290" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="8" format="291" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
   </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -15162,10 +15304,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AF288BD-7C2F-4A0D-BC42-22C6213BFEBF}">
-  <dimension ref="A3:K14"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K30" sqref="K30"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15207,98 +15349,168 @@
     <col min="44" max="44" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" t="s">
+        <v>163</v>
+      </c>
+      <c r="H2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" t="s">
+        <v>164</v>
+      </c>
+      <c r="K2" t="s">
+        <v>159</v>
+      </c>
+    </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>160</v>
+        <v>158</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D4" t="s">
-        <v>162</v>
-      </c>
-      <c r="E4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G4" t="s">
-        <v>163</v>
-      </c>
-      <c r="H4" t="s">
-        <v>21</v>
-      </c>
-      <c r="J4" t="s">
-        <v>164</v>
-      </c>
-      <c r="K4" t="s">
-        <v>159</v>
+      <c r="A4" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2">
+        <v>1043</v>
+      </c>
+      <c r="J4" s="2">
+        <v>1043</v>
+      </c>
+      <c r="K4" s="2">
+        <v>1043</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I5" t="s">
-        <v>28</v>
+      <c r="A5" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2">
+        <v>10952</v>
+      </c>
+      <c r="F5" s="2">
+        <v>2684</v>
+      </c>
+      <c r="G5" s="2">
+        <v>13636</v>
+      </c>
+      <c r="H5" s="2">
+        <v>27570</v>
+      </c>
+      <c r="I5" s="2">
+        <v>16035</v>
+      </c>
+      <c r="J5" s="2">
+        <v>43605</v>
+      </c>
+      <c r="K5" s="2">
+        <v>57241</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="B6" s="2">
-        <v>0</v>
+        <v>1043</v>
       </c>
       <c r="C6" s="2">
-        <v>0</v>
+        <v>1745</v>
       </c>
       <c r="D6" s="2">
-        <v>0</v>
+        <v>2788</v>
       </c>
       <c r="E6" s="2">
-        <v>0</v>
+        <v>1047</v>
       </c>
       <c r="F6" s="2">
-        <v>0</v>
+        <v>1043</v>
       </c>
       <c r="G6" s="2">
-        <v>0</v>
+        <v>2090</v>
       </c>
       <c r="H6" s="2">
-        <v>0</v>
+        <v>1043</v>
       </c>
       <c r="I6" s="2">
-        <v>1043</v>
+        <v>3151</v>
       </c>
       <c r="J6" s="2">
-        <v>1043</v>
+        <v>4194</v>
       </c>
       <c r="K6" s="2">
-        <v>1043</v>
+        <v>9072</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="B7" s="2">
         <v>0</v>
@@ -15310,100 +15522,100 @@
         <v>0</v>
       </c>
       <c r="E7" s="2">
-        <v>10952</v>
+        <v>0</v>
       </c>
       <c r="F7" s="2">
-        <v>2684</v>
+        <v>0</v>
       </c>
       <c r="G7" s="2">
-        <v>13636</v>
+        <v>0</v>
       </c>
       <c r="H7" s="2">
-        <v>27570</v>
+        <v>2086</v>
       </c>
       <c r="I7" s="2">
-        <v>16035</v>
+        <v>0</v>
       </c>
       <c r="J7" s="2">
-        <v>43605</v>
+        <v>2086</v>
       </c>
       <c r="K7" s="2">
-        <v>57241</v>
+        <v>2086</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="B8" s="2">
-        <v>1043</v>
+        <v>0</v>
       </c>
       <c r="C8" s="2">
-        <v>1745</v>
+        <v>0</v>
       </c>
       <c r="D8" s="2">
-        <v>2788</v>
+        <v>0</v>
       </c>
       <c r="E8" s="2">
-        <v>1047</v>
+        <v>0</v>
       </c>
       <c r="F8" s="2">
-        <v>1043</v>
+        <v>0</v>
       </c>
       <c r="G8" s="2">
-        <v>2090</v>
+        <v>0</v>
       </c>
       <c r="H8" s="2">
-        <v>1043</v>
+        <v>8410</v>
       </c>
       <c r="I8" s="2">
-        <v>3151</v>
+        <v>5226</v>
       </c>
       <c r="J8" s="2">
-        <v>4194</v>
+        <v>13636</v>
       </c>
       <c r="K8" s="2">
-        <v>9072</v>
+        <v>13636</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>40</v>
+        <v>87</v>
       </c>
       <c r="B9" s="2">
+        <v>6291</v>
+      </c>
+      <c r="C9" s="2">
+        <v>4216</v>
+      </c>
+      <c r="D9" s="2">
+        <v>10507</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1054</v>
+      </c>
+      <c r="F9" s="2">
+        <v>9420</v>
+      </c>
+      <c r="G9" s="2">
+        <v>10474</v>
+      </c>
+      <c r="H9" s="2">
         <v>0</v>
-      </c>
-      <c r="C9" s="2">
-        <v>0</v>
-      </c>
-      <c r="D9" s="2">
-        <v>0</v>
-      </c>
-      <c r="E9" s="2">
-        <v>0</v>
-      </c>
-      <c r="F9" s="2">
-        <v>0</v>
-      </c>
-      <c r="G9" s="2">
-        <v>0</v>
-      </c>
-      <c r="H9" s="2">
-        <v>2086</v>
       </c>
       <c r="I9" s="2">
         <v>0</v>
       </c>
       <c r="J9" s="2">
-        <v>2086</v>
+        <v>0</v>
       </c>
       <c r="K9" s="2">
-        <v>2086</v>
+        <v>20981</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="B10" s="2">
         <v>0</v>
@@ -15415,169 +15627,99 @@
         <v>0</v>
       </c>
       <c r="E10" s="2">
+        <v>6302</v>
+      </c>
+      <c r="F10" s="2">
+        <v>2821</v>
+      </c>
+      <c r="G10" s="2">
+        <v>9123</v>
+      </c>
+      <c r="H10" s="2">
         <v>0</v>
       </c>
-      <c r="F10" s="2">
+      <c r="I10" s="2">
         <v>0</v>
       </c>
-      <c r="G10" s="2">
+      <c r="J10" s="2">
         <v>0</v>
       </c>
-      <c r="H10" s="2">
-        <v>8410</v>
-      </c>
-      <c r="I10" s="2">
-        <v>5226</v>
-      </c>
-      <c r="J10" s="2">
-        <v>13636</v>
-      </c>
       <c r="K10" s="2">
-        <v>13636</v>
+        <v>9123</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>87</v>
+        <v>36</v>
       </c>
       <c r="B11" s="2">
-        <v>6291</v>
+        <v>2265</v>
       </c>
       <c r="C11" s="2">
-        <v>4216</v>
+        <v>490</v>
       </c>
       <c r="D11" s="2">
-        <v>10507</v>
+        <v>2755</v>
       </c>
       <c r="E11" s="2">
-        <v>1054</v>
+        <v>16204</v>
       </c>
       <c r="F11" s="2">
-        <v>9420</v>
+        <v>2435</v>
       </c>
       <c r="G11" s="2">
-        <v>10474</v>
+        <v>18639</v>
       </c>
       <c r="H11" s="2">
-        <v>0</v>
+        <v>13276</v>
       </c>
       <c r="I11" s="2">
-        <v>0</v>
+        <v>15656</v>
       </c>
       <c r="J11" s="2">
-        <v>0</v>
+        <v>28932</v>
       </c>
       <c r="K11" s="2">
-        <v>20981</v>
+        <v>50326</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>58</v>
+        <v>159</v>
       </c>
       <c r="B12" s="2">
-        <v>0</v>
+        <v>9599</v>
       </c>
       <c r="C12" s="2">
-        <v>0</v>
+        <v>6451</v>
       </c>
       <c r="D12" s="2">
-        <v>0</v>
+        <v>16050</v>
       </c>
       <c r="E12" s="2">
-        <v>6302</v>
+        <v>35559</v>
       </c>
       <c r="F12" s="2">
-        <v>2821</v>
+        <v>18403</v>
       </c>
       <c r="G12" s="2">
-        <v>9123</v>
+        <v>53962</v>
       </c>
       <c r="H12" s="2">
-        <v>0</v>
+        <v>52385</v>
       </c>
       <c r="I12" s="2">
-        <v>0</v>
+        <v>41111</v>
       </c>
       <c r="J12" s="2">
-        <v>0</v>
+        <v>93496</v>
       </c>
       <c r="K12" s="2">
-        <v>9123</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13" s="2">
-        <v>2265</v>
-      </c>
-      <c r="C13" s="2">
-        <v>490</v>
-      </c>
-      <c r="D13" s="2">
-        <v>2755</v>
-      </c>
-      <c r="E13" s="2">
-        <v>16204</v>
-      </c>
-      <c r="F13" s="2">
-        <v>2435</v>
-      </c>
-      <c r="G13" s="2">
-        <v>18639</v>
-      </c>
-      <c r="H13" s="2">
-        <v>13276</v>
-      </c>
-      <c r="I13" s="2">
-        <v>15656</v>
-      </c>
-      <c r="J13" s="2">
-        <v>28932</v>
-      </c>
-      <c r="K13" s="2">
-        <v>50326</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="B14" s="2">
-        <v>9599</v>
-      </c>
-      <c r="C14" s="2">
-        <v>6451</v>
-      </c>
-      <c r="D14" s="2">
-        <v>16050</v>
-      </c>
-      <c r="E14" s="2">
-        <v>35559</v>
-      </c>
-      <c r="F14" s="2">
-        <v>18403</v>
-      </c>
-      <c r="G14" s="2">
-        <v>53962</v>
-      </c>
-      <c r="H14" s="2">
-        <v>52385</v>
-      </c>
-      <c r="I14" s="2">
-        <v>41111</v>
-      </c>
-      <c r="J14" s="2">
-        <v>93496</v>
-      </c>
-      <c r="K14" s="2">
         <v>163508</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting pivot="1" sqref="B6:C14 E6:F14 H6:I14">
+  <conditionalFormatting pivot="1" sqref="B4:C12 E4:F12 H4:I12">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -21053,9 +21195,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -21221,19 +21366,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CB55A197-E6BA-450D-B171-3C9117E06810}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{89A0981A-8B6B-4170-BCF8-2DB63DFF61C5}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -21257,9 +21398,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{89A0981A-8B6B-4170-BCF8-2DB63DFF61C5}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CB55A197-E6BA-450D-B171-3C9117E06810}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>